--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Fiberpreg\InvoiceProcess\Invoice Mailer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E16976-6045-4F69-A2E7-254BA31EAE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E31776-B9A1-42CA-9EB6-EE366941CAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{15A2E743-9954-4B39-9634-F382AC6CEE02}"/>
   </bookViews>
@@ -114,40 +114,40 @@
     <t>Email Addressees</t>
   </si>
   <si>
-    <t>libor.knappek@valuetools.cz, libor.knappek@gmail.com</t>
-  </si>
-  <si>
     <t>List of addressees of the email with zipped invoices (comma delimited)</t>
   </si>
   <si>
     <t>EmailBody</t>
   </si>
   <si>
-    <t>This is a test email, find ivoices attached.</t>
-  </si>
-  <si>
     <t>Text of the email.</t>
   </si>
   <si>
     <t>Email Subject</t>
   </si>
   <si>
-    <t>Fiberpreg Invoices</t>
-  </si>
-  <si>
     <t>Subject of the email, date is added automatically</t>
   </si>
   <si>
     <t>EmailCC</t>
   </si>
   <si>
-    <t>robot@valuetools.cz</t>
-  </si>
-  <si>
     <t>List of CC on the email</t>
   </si>
   <si>
-    <t>smtp.gmail.com</t>
+    <t>libor.knappek@valuetools.cz</t>
+  </si>
+  <si>
+    <t>SMTP.office365.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.fetscher@fiberpreg.de </t>
+  </si>
+  <si>
+    <t>Eingangsrechnungen</t>
+  </si>
+  <si>
+    <t>Hallo Frau Grüner, Anbei sende ich Ihnen die neuesten Eingangsrechnungen.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>465</v>
+        <v>587</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -646,51 +646,51 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{316020BE-9344-45F9-97D2-FDFA1C65E4A0}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{41CA5280-DEE5-4424-B6FE-727CF25DEE35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>